--- a/data/pca/factorExposure/factorExposure_2016-04-19.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-04-19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01092836432979544</v>
+        <v>0.01517236826376049</v>
       </c>
       <c r="C2">
-        <v>0.05316392821477484</v>
+        <v>0.03859966720677024</v>
       </c>
       <c r="D2">
-        <v>0.04244633795757848</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.06166404009009931</v>
+      </c>
+      <c r="E2">
+        <v>0.09706804586258615</v>
+      </c>
+      <c r="F2">
+        <v>0.08737417661542866</v>
+      </c>
+      <c r="G2">
+        <v>0.02756444589565206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.04047506617931016</v>
+        <v>0.025086842573327</v>
       </c>
       <c r="C3">
-        <v>0.1223313284431368</v>
+        <v>0.0671556980368062</v>
       </c>
       <c r="D3">
-        <v>0.08525626838878442</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.07266340803359454</v>
+      </c>
+      <c r="E3">
+        <v>0.06992668035437002</v>
+      </c>
+      <c r="F3">
+        <v>-0.01946725712775174</v>
+      </c>
+      <c r="G3">
+        <v>0.04462905288211036</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06361309963234801</v>
+        <v>0.06078144064879056</v>
       </c>
       <c r="C4">
-        <v>0.06169013988714878</v>
+        <v>0.063200839196596</v>
       </c>
       <c r="D4">
-        <v>0.02912599633391485</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.05316200375545279</v>
+      </c>
+      <c r="E4">
+        <v>0.08927435442435139</v>
+      </c>
+      <c r="F4">
+        <v>0.04591408398368062</v>
+      </c>
+      <c r="G4">
+        <v>0.08623119651238746</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.04161032120421849</v>
+        <v>0.03758975856647914</v>
       </c>
       <c r="C6">
-        <v>0.03490505726012393</v>
+        <v>0.02587308800411729</v>
       </c>
       <c r="D6">
-        <v>0.03060111757730876</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.06119302963136348</v>
+      </c>
+      <c r="E6">
+        <v>0.08922932429817505</v>
+      </c>
+      <c r="F6">
+        <v>0.0283160288429056</v>
+      </c>
+      <c r="G6">
+        <v>0.06410982254756055</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02722895239540079</v>
+        <v>0.02135089067303157</v>
       </c>
       <c r="C7">
-        <v>0.03965752895831649</v>
+        <v>0.03521108914797771</v>
       </c>
       <c r="D7">
-        <v>-0.006544612777474942</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.03786765698576118</v>
+      </c>
+      <c r="E7">
+        <v>0.069102413609767</v>
+      </c>
+      <c r="F7">
+        <v>0.06931918681752697</v>
+      </c>
+      <c r="G7">
+        <v>0.09892695346299031</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.00690885685115874</v>
+        <v>0.005331559896581093</v>
       </c>
       <c r="C8">
-        <v>0.04214000342904046</v>
+        <v>0.03432888090825039</v>
       </c>
       <c r="D8">
-        <v>0.02639923934728611</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03321228335325879</v>
+      </c>
+      <c r="E8">
+        <v>0.06353107173500665</v>
+      </c>
+      <c r="F8">
+        <v>0.02000969533146969</v>
+      </c>
+      <c r="G8">
+        <v>0.0368415223196622</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03752614532730565</v>
+        <v>0.03981447104258271</v>
       </c>
       <c r="C9">
-        <v>0.04851763003235875</v>
+        <v>0.05071848161607695</v>
       </c>
       <c r="D9">
-        <v>0.01369541002929124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.03883141753153357</v>
+      </c>
+      <c r="E9">
+        <v>0.07255013546551554</v>
+      </c>
+      <c r="F9">
+        <v>0.05966398251383157</v>
+      </c>
+      <c r="G9">
+        <v>0.0797254617396795</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.07194776435519583</v>
+        <v>0.09786413223227185</v>
       </c>
       <c r="C10">
-        <v>-0.1901593649988525</v>
+        <v>-0.2010665964505518</v>
       </c>
       <c r="D10">
-        <v>-0.005345337331489278</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01278784608407688</v>
+      </c>
+      <c r="E10">
+        <v>0.03363586527262227</v>
+      </c>
+      <c r="F10">
+        <v>0.01844377262114203</v>
+      </c>
+      <c r="G10">
+        <v>0.03672346396122486</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04252122655111251</v>
+        <v>0.03768168494168086</v>
       </c>
       <c r="C11">
-        <v>0.05092221035290984</v>
+        <v>0.04737387503855819</v>
       </c>
       <c r="D11">
-        <v>0.01341040764169771</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.03098593652669356</v>
+      </c>
+      <c r="E11">
+        <v>0.02979555477266858</v>
+      </c>
+      <c r="F11">
+        <v>0.04196184605604656</v>
+      </c>
+      <c r="G11">
+        <v>0.06725927721159497</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04523838974123662</v>
+        <v>0.03984710888143836</v>
       </c>
       <c r="C12">
-        <v>0.0465708978948326</v>
+        <v>0.04537006640211272</v>
       </c>
       <c r="D12">
-        <v>0.002726152769225691</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.02615781730003511</v>
+      </c>
+      <c r="E12">
+        <v>0.03631971216379703</v>
+      </c>
+      <c r="F12">
+        <v>0.04285889499186997</v>
+      </c>
+      <c r="G12">
+        <v>0.06515783380233275</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01480929634974758</v>
+        <v>0.01279649455733023</v>
       </c>
       <c r="C13">
-        <v>0.05434015317929758</v>
+        <v>0.041850742001754</v>
       </c>
       <c r="D13">
-        <v>0.009350922790793574</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.04416132162545354</v>
+      </c>
+      <c r="E13">
+        <v>0.1037153342902424</v>
+      </c>
+      <c r="F13">
+        <v>0.06114416131047592</v>
+      </c>
+      <c r="G13">
+        <v>0.0935088805432249</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.009829909801121473</v>
+        <v>0.006467556704712695</v>
       </c>
       <c r="C14">
-        <v>0.03814077424808535</v>
+        <v>0.03055032520407387</v>
       </c>
       <c r="D14">
-        <v>-0.007720988166699039</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.02445760709546512</v>
+      </c>
+      <c r="E14">
+        <v>0.05248502714833998</v>
+      </c>
+      <c r="F14">
+        <v>0.07854699297407408</v>
+      </c>
+      <c r="G14">
+        <v>0.08259536651364846</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1.952046141759201e-05</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.005292401160042213</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.008226198336210966</v>
+      </c>
+      <c r="E15">
+        <v>0.005003687880912338</v>
+      </c>
+      <c r="F15">
+        <v>0.007014131365720801</v>
+      </c>
+      <c r="G15">
+        <v>0.007385596167324336</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.04024214579507712</v>
+        <v>0.03574082435541932</v>
       </c>
       <c r="C16">
-        <v>0.04790842627573567</v>
+        <v>0.0440856024268605</v>
       </c>
       <c r="D16">
-        <v>0.004895721051147966</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02499804651451714</v>
+      </c>
+      <c r="E16">
+        <v>0.04266494258994792</v>
+      </c>
+      <c r="F16">
+        <v>0.05367170312118127</v>
+      </c>
+      <c r="G16">
+        <v>0.05516884991177238</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02690773906863822</v>
+        <v>0.018767820279796</v>
       </c>
       <c r="C19">
-        <v>0.05913758138760811</v>
+        <v>0.04404853249232141</v>
       </c>
       <c r="D19">
-        <v>0.09107923353694138</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.09166340881413031</v>
+      </c>
+      <c r="E19">
+        <v>0.1143835138273348</v>
+      </c>
+      <c r="F19">
+        <v>0.06189604432186448</v>
+      </c>
+      <c r="G19">
+        <v>0.04039468875610568</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01902581207549627</v>
+        <v>0.01521456619354626</v>
       </c>
       <c r="C20">
-        <v>0.04891585865563731</v>
+        <v>0.03902393283238272</v>
       </c>
       <c r="D20">
-        <v>0.0100090685255175</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.03289408402370539</v>
+      </c>
+      <c r="E20">
+        <v>0.08057875709153224</v>
+      </c>
+      <c r="F20">
+        <v>0.05398250989126285</v>
+      </c>
+      <c r="G20">
+        <v>0.06534570220343</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.0126567927575937</v>
+        <v>0.01102957530572693</v>
       </c>
       <c r="C21">
-        <v>0.054081595791338</v>
+        <v>0.04354644704350032</v>
       </c>
       <c r="D21">
-        <v>0.02991570733026479</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.05550587935692711</v>
+      </c>
+      <c r="E21">
+        <v>0.1290819330910424</v>
+      </c>
+      <c r="F21">
+        <v>0.09043501028790024</v>
+      </c>
+      <c r="G21">
+        <v>0.09303514659002189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.001713147140810737</v>
+        <v>0.003887699153899444</v>
       </c>
       <c r="C22">
-        <v>0.001520043916105069</v>
+        <v>0.02902697094536707</v>
       </c>
       <c r="D22">
-        <v>0.006151132953411883</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.04940568659636091</v>
+      </c>
+      <c r="E22">
+        <v>0.05714123431451244</v>
+      </c>
+      <c r="F22">
+        <v>-0.01695650085268803</v>
+      </c>
+      <c r="G22">
+        <v>0.06169595738950671</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.001718913579148487</v>
+        <v>0.003971301176330599</v>
       </c>
       <c r="C23">
-        <v>0.001539278882474884</v>
+        <v>0.02916947314977144</v>
       </c>
       <c r="D23">
-        <v>0.006140803347474862</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.04895354611568627</v>
+      </c>
+      <c r="E23">
+        <v>0.05739385728758956</v>
+      </c>
+      <c r="F23">
+        <v>-0.01726546206460143</v>
+      </c>
+      <c r="G23">
+        <v>0.06166613830263415</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.03717448499892958</v>
+        <v>0.03615549364493623</v>
       </c>
       <c r="C24">
-        <v>0.05013418360313678</v>
+        <v>0.05213486972356166</v>
       </c>
       <c r="D24">
-        <v>0.006833784904360061</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02396801289207804</v>
+      </c>
+      <c r="E24">
+        <v>0.04391232529274506</v>
+      </c>
+      <c r="F24">
+        <v>0.05617722450282087</v>
+      </c>
+      <c r="G24">
+        <v>0.06738627544218725</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04892620040362589</v>
+        <v>0.04402373286335718</v>
       </c>
       <c r="C25">
-        <v>0.0606814942863747</v>
+        <v>0.05582467690094149</v>
       </c>
       <c r="D25">
-        <v>-0.003781144689322455</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.02240422241390325</v>
+      </c>
+      <c r="E25">
+        <v>0.03707762628056071</v>
+      </c>
+      <c r="F25">
+        <v>0.04556754756902985</v>
+      </c>
+      <c r="G25">
+        <v>0.07805783625323734</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01666921811387679</v>
+        <v>0.01584234864246248</v>
       </c>
       <c r="C26">
-        <v>0.01822207210070747</v>
+        <v>0.01693605098364753</v>
       </c>
       <c r="D26">
-        <v>0.0007487073164238572</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02420432504217744</v>
+      </c>
+      <c r="E26">
+        <v>0.05443742501763248</v>
+      </c>
+      <c r="F26">
+        <v>0.06010910532904149</v>
+      </c>
+      <c r="G26">
+        <v>0.0490420151059505</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.08622796293568592</v>
+        <v>0.1337951038182863</v>
       </c>
       <c r="C28">
-        <v>-0.2495108412527829</v>
+        <v>-0.2559704596035784</v>
       </c>
       <c r="D28">
-        <v>-0.005312001431316295</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.02850811753663055</v>
+      </c>
+      <c r="E28">
+        <v>0.06006017752600828</v>
+      </c>
+      <c r="F28">
+        <v>0.03559994707647939</v>
+      </c>
+      <c r="G28">
+        <v>0.05359854617322751</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.007976007607541186</v>
+        <v>0.006598381050316392</v>
       </c>
       <c r="C29">
-        <v>0.03327939922310772</v>
+        <v>0.0282325071590371</v>
       </c>
       <c r="D29">
-        <v>-0.01409847990933508</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01570389691041151</v>
+      </c>
+      <c r="E29">
+        <v>0.05163030422703565</v>
+      </c>
+      <c r="F29">
+        <v>0.06897312853821413</v>
+      </c>
+      <c r="G29">
+        <v>0.08522449318433535</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04696228473732397</v>
+        <v>0.04374013705995582</v>
       </c>
       <c r="C30">
-        <v>0.05332250078218228</v>
+        <v>0.05675781137852409</v>
       </c>
       <c r="D30">
-        <v>0.08007746779981069</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1016501327010405</v>
+      </c>
+      <c r="E30">
+        <v>0.08179571938754505</v>
+      </c>
+      <c r="F30">
+        <v>0.06885707717759512</v>
+      </c>
+      <c r="G30">
+        <v>0.06594718038881475</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.06062888425431213</v>
+        <v>0.05870400750948946</v>
       </c>
       <c r="C31">
-        <v>0.04573437483380378</v>
+        <v>0.06150933034002539</v>
       </c>
       <c r="D31">
-        <v>-0.04319349348255209</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.01828377412099687</v>
+      </c>
+      <c r="E31">
+        <v>0.07176272025405099</v>
+      </c>
+      <c r="F31">
+        <v>0.02541780379580251</v>
+      </c>
+      <c r="G31">
+        <v>0.08189305629013842</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.001697983215167837</v>
+        <v>0.006043844198918545</v>
       </c>
       <c r="C32">
-        <v>0.0432686034695783</v>
+        <v>0.03519069517992823</v>
       </c>
       <c r="D32">
-        <v>0.0593842377171877</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.05630489941751116</v>
+      </c>
+      <c r="E32">
+        <v>0.06312105803052226</v>
+      </c>
+      <c r="F32">
+        <v>0.06513967672288885</v>
+      </c>
+      <c r="G32">
+        <v>0.06742745472164281</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.03442885502723172</v>
+        <v>0.02825217476399228</v>
       </c>
       <c r="C33">
-        <v>0.05607888390540354</v>
+        <v>0.05119152565894954</v>
       </c>
       <c r="D33">
-        <v>0.03954211933279457</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.0705721421919368</v>
+      </c>
+      <c r="E33">
+        <v>0.09287408322136437</v>
+      </c>
+      <c r="F33">
+        <v>0.07010129731187441</v>
+      </c>
+      <c r="G33">
+        <v>0.0974333398317636</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04619156696138787</v>
+        <v>0.04163959443963674</v>
       </c>
       <c r="C34">
-        <v>0.06453179939519879</v>
+        <v>0.06262325316923824</v>
       </c>
       <c r="D34">
-        <v>0.01917108804753163</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03754999524000556</v>
+      </c>
+      <c r="E34">
+        <v>0.0189405050784237</v>
+      </c>
+      <c r="F34">
+        <v>0.05593485359252545</v>
+      </c>
+      <c r="G34">
+        <v>0.06924738190364828</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01742019880169124</v>
+        <v>0.0148061512725961</v>
       </c>
       <c r="C36">
-        <v>0.01702235924485834</v>
+        <v>0.01357824217818331</v>
       </c>
       <c r="D36">
-        <v>-0.003589625549568207</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02329758154441189</v>
+      </c>
+      <c r="E36">
+        <v>0.06262926602938725</v>
+      </c>
+      <c r="F36">
+        <v>0.05078453825352254</v>
+      </c>
+      <c r="G36">
+        <v>0.06496263789567473</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.03029090605676083</v>
+        <v>0.02374837697628447</v>
       </c>
       <c r="C38">
-        <v>0.03229928535572991</v>
+        <v>0.02418964748655241</v>
       </c>
       <c r="D38">
-        <v>-0.01392246807919153</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.0207530453824416</v>
+      </c>
+      <c r="E38">
+        <v>0.05172987733512532</v>
+      </c>
+      <c r="F38">
+        <v>0.04238166546604378</v>
+      </c>
+      <c r="G38">
+        <v>0.04512854322329876</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.04783494876982058</v>
+        <v>0.04187754919761536</v>
       </c>
       <c r="C39">
-        <v>0.0617861069375922</v>
+        <v>0.06232228757529528</v>
       </c>
       <c r="D39">
-        <v>0.02006412821697144</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.05057358046130176</v>
+      </c>
+      <c r="E39">
+        <v>0.05123248834160509</v>
+      </c>
+      <c r="F39">
+        <v>0.07558462182426984</v>
+      </c>
+      <c r="G39">
+        <v>0.06172247324025058</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01147828199694409</v>
+        <v>0.01401573911767577</v>
       </c>
       <c r="C40">
-        <v>0.05591606312474589</v>
+        <v>0.03923276798026923</v>
       </c>
       <c r="D40">
-        <v>0.01930665762125988</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03141037855678817</v>
+      </c>
+      <c r="E40">
+        <v>0.09214045165299224</v>
+      </c>
+      <c r="F40">
+        <v>0.03776312176709481</v>
+      </c>
+      <c r="G40">
+        <v>0.1000679152265652</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.02277614094787391</v>
+        <v>0.01959232793609769</v>
       </c>
       <c r="C41">
-        <v>0.01320282237893773</v>
+        <v>0.009388299015434236</v>
       </c>
       <c r="D41">
-        <v>0.0007585044359804177</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01525922400966073</v>
+      </c>
+      <c r="E41">
+        <v>0.0635096603213091</v>
+      </c>
+      <c r="F41">
+        <v>0.04666654669079149</v>
+      </c>
+      <c r="G41">
+        <v>0.05190269425708274</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.04343581303245518</v>
+        <v>0.03110805151484828</v>
       </c>
       <c r="C43">
-        <v>0.03408031237238117</v>
+        <v>0.02481593914298851</v>
       </c>
       <c r="D43">
-        <v>0.02128955281915821</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.0431703562549464</v>
+      </c>
+      <c r="E43">
+        <v>0.07961897117750778</v>
+      </c>
+      <c r="F43">
+        <v>0.04036822466604466</v>
+      </c>
+      <c r="G43">
+        <v>0.0792176351985666</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.01535965572363967</v>
+        <v>0.0170460296850687</v>
       </c>
       <c r="C44">
-        <v>0.06978028369316856</v>
+        <v>0.04740394022338038</v>
       </c>
       <c r="D44">
-        <v>0.008133712602058465</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.03195741615858463</v>
+      </c>
+      <c r="E44">
+        <v>0.09160428550012402</v>
+      </c>
+      <c r="F44">
+        <v>0.06595908054131994</v>
+      </c>
+      <c r="G44">
+        <v>0.04936839221765428</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.0109031310136788</v>
+        <v>0.0117529851647987</v>
       </c>
       <c r="C46">
-        <v>0.02657485092292275</v>
+        <v>0.02800187853037543</v>
       </c>
       <c r="D46">
-        <v>-0.01586992070012848</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01149961170519041</v>
+      </c>
+      <c r="E46">
+        <v>0.06224470292546889</v>
+      </c>
+      <c r="F46">
+        <v>0.08072292620811973</v>
+      </c>
+      <c r="G46">
+        <v>0.08463572375528926</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.08956274746811879</v>
+        <v>0.09223283890815681</v>
       </c>
       <c r="C47">
-        <v>0.06828899508763907</v>
+        <v>0.07920965995336288</v>
       </c>
       <c r="D47">
-        <v>-0.04294100350022097</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.02443945086294966</v>
+      </c>
+      <c r="E47">
+        <v>0.0672059513516638</v>
+      </c>
+      <c r="F47">
+        <v>0.02458858954641085</v>
+      </c>
+      <c r="G47">
+        <v>0.07764847191941369</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.01909263248133793</v>
+        <v>0.01753327670041334</v>
       </c>
       <c r="C48">
-        <v>0.01444694340919603</v>
+        <v>0.01590269797435546</v>
       </c>
       <c r="D48">
-        <v>-0.01700635369087073</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01033175961262302</v>
+      </c>
+      <c r="E48">
+        <v>0.07442258254061997</v>
+      </c>
+      <c r="F48">
+        <v>0.06405494209597193</v>
+      </c>
+      <c r="G48">
+        <v>0.07228417877584956</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08452544440674126</v>
+        <v>0.07220775197192041</v>
       </c>
       <c r="C50">
-        <v>0.08180641455139309</v>
+        <v>0.07481818601057588</v>
       </c>
       <c r="D50">
-        <v>-0.04324736206130766</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.009088424049788229</v>
+      </c>
+      <c r="E50">
+        <v>0.078102409251515</v>
+      </c>
+      <c r="F50">
+        <v>-0.001653138032505024</v>
+      </c>
+      <c r="G50">
+        <v>0.0914219230931492</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01765797378611708</v>
+        <v>0.0113351589891355</v>
       </c>
       <c r="C51">
-        <v>0.0510260045308493</v>
+        <v>0.03235210303248158</v>
       </c>
       <c r="D51">
-        <v>0.04011370375082029</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.05568025713615583</v>
+      </c>
+      <c r="E51">
+        <v>0.0538401419814544</v>
+      </c>
+      <c r="F51">
+        <v>0.07185519937314337</v>
+      </c>
+      <c r="G51">
+        <v>0.05935166835517665</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08486564907315455</v>
+        <v>0.09752138202563422</v>
       </c>
       <c r="C53">
-        <v>0.07801944906763168</v>
+        <v>0.08576716875015172</v>
       </c>
       <c r="D53">
-        <v>-0.06579844216636799</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.06193540122353336</v>
+      </c>
+      <c r="E53">
+        <v>0.06641047000245844</v>
+      </c>
+      <c r="F53">
+        <v>0.02493955011888432</v>
+      </c>
+      <c r="G53">
+        <v>0.06767639033535461</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.03653293857408456</v>
+        <v>0.02993937960198509</v>
       </c>
       <c r="C54">
-        <v>0.03371480502769255</v>
+        <v>0.03047015532166004</v>
       </c>
       <c r="D54">
-        <v>-0.005348834679959824</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.02334192079643128</v>
+      </c>
+      <c r="E54">
+        <v>0.05926506114556174</v>
+      </c>
+      <c r="F54">
+        <v>0.07048432904934615</v>
+      </c>
+      <c r="G54">
+        <v>0.08787491933215166</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.07958451453173511</v>
+        <v>0.08962861542112317</v>
       </c>
       <c r="C55">
-        <v>0.05436476807761964</v>
+        <v>0.06757474583502313</v>
       </c>
       <c r="D55">
-        <v>-0.07010788741746996</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.06238763293121217</v>
+      </c>
+      <c r="E55">
+        <v>0.04406037482669081</v>
+      </c>
+      <c r="F55">
+        <v>0.003422171861008877</v>
+      </c>
+      <c r="G55">
+        <v>0.05285259296671709</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1530908093798586</v>
+        <v>0.1553045979237787</v>
       </c>
       <c r="C56">
-        <v>0.08368195839143627</v>
+        <v>0.1009750280217703</v>
       </c>
       <c r="D56">
-        <v>-0.06096138524323733</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.05615611911179356</v>
+      </c>
+      <c r="E56">
+        <v>0.03928432563270845</v>
+      </c>
+      <c r="F56">
+        <v>-0.01630738810709405</v>
+      </c>
+      <c r="G56">
+        <v>0.02214375345741669</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.05044089167941505</v>
+        <v>0.03098538135541743</v>
       </c>
       <c r="C58">
-        <v>0.0188116015430669</v>
+        <v>0.02093222901344648</v>
       </c>
       <c r="D58">
-        <v>0.5813251596122782</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.3771793836458756</v>
+      </c>
+      <c r="E58">
+        <v>0.619800884516108</v>
+      </c>
+      <c r="F58">
+        <v>-0.4210370269024445</v>
+      </c>
+      <c r="G58">
+        <v>-0.4627117223857687</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1256345592682485</v>
+        <v>0.1403906657710402</v>
       </c>
       <c r="C59">
-        <v>-0.2034999334054713</v>
+        <v>-0.1918103367110979</v>
       </c>
       <c r="D59">
-        <v>0.02813168351911321</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.03026470885209519</v>
+      </c>
+      <c r="E59">
+        <v>0.03035721561934207</v>
+      </c>
+      <c r="F59">
+        <v>0.03177071436317432</v>
+      </c>
+      <c r="G59">
+        <v>-0.009081303595303215</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3063754788397745</v>
+        <v>0.2763904077114521</v>
       </c>
       <c r="C60">
-        <v>0.1097066053456037</v>
+        <v>0.1067471634839531</v>
       </c>
       <c r="D60">
-        <v>0.1812257385183627</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.2567057232158111</v>
+      </c>
+      <c r="E60">
+        <v>-0.2384474307430772</v>
+      </c>
+      <c r="F60">
+        <v>-0.09382409793978656</v>
+      </c>
+      <c r="G60">
+        <v>0.04730950425313805</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.04664885563924075</v>
+        <v>0.04319679552546792</v>
       </c>
       <c r="C61">
-        <v>0.06066748763720213</v>
+        <v>0.05780676607803754</v>
       </c>
       <c r="D61">
-        <v>0.01419139665189804</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04132381288466803</v>
+      </c>
+      <c r="E61">
+        <v>0.05311539242868393</v>
+      </c>
+      <c r="F61">
+        <v>0.05764174252362012</v>
+      </c>
+      <c r="G61">
+        <v>0.07665996802624468</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01917067473266161</v>
+        <v>0.01736115768433664</v>
       </c>
       <c r="C63">
-        <v>0.03367547374358296</v>
+        <v>0.03062094197942371</v>
       </c>
       <c r="D63">
-        <v>-0.02242738039059468</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.01574305439331825</v>
+      </c>
+      <c r="E63">
+        <v>0.06459591485955597</v>
+      </c>
+      <c r="F63">
+        <v>0.03577403107725359</v>
+      </c>
+      <c r="G63">
+        <v>0.07662132376636617</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.05048461587576768</v>
+        <v>0.05693980743217408</v>
       </c>
       <c r="C64">
-        <v>0.04730655003373709</v>
+        <v>0.05769420991237102</v>
       </c>
       <c r="D64">
-        <v>0.01481311977149242</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.006960394940713252</v>
+      </c>
+      <c r="E64">
+        <v>0.04603576650764463</v>
+      </c>
+      <c r="F64">
+        <v>0.05262281546596507</v>
+      </c>
+      <c r="G64">
+        <v>0.05338969689784356</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.08136824735719983</v>
+        <v>0.0661798067661911</v>
       </c>
       <c r="C65">
-        <v>0.02516870827123933</v>
+        <v>0.0251722116914871</v>
       </c>
       <c r="D65">
-        <v>0.06186088101415567</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.08827857765971577</v>
+      </c>
+      <c r="E65">
+        <v>0.05540662936775894</v>
+      </c>
+      <c r="F65">
+        <v>0.00521740446687385</v>
+      </c>
+      <c r="G65">
+        <v>0.02026257674316245</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06330081886592892</v>
+        <v>0.05435859572705839</v>
       </c>
       <c r="C66">
-        <v>0.08544163276201448</v>
+        <v>0.08018330690544011</v>
       </c>
       <c r="D66">
-        <v>0.04000986149746739</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.07532641897676139</v>
+      </c>
+      <c r="E66">
+        <v>0.0630288824954498</v>
+      </c>
+      <c r="F66">
+        <v>0.06634884342125652</v>
+      </c>
+      <c r="G66">
+        <v>0.07512259283055303</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05173001472301082</v>
+        <v>0.0449795882004669</v>
       </c>
       <c r="C67">
-        <v>0.03148340460140742</v>
+        <v>0.0284908815970881</v>
       </c>
       <c r="D67">
-        <v>-0.02266184780585639</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.004068685962238921</v>
+      </c>
+      <c r="E67">
+        <v>0.02737977568747936</v>
+      </c>
+      <c r="F67">
+        <v>0.02820119464669775</v>
+      </c>
+      <c r="G67">
+        <v>0.03614972293571683</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1214944953246082</v>
+        <v>0.1455992950867365</v>
       </c>
       <c r="C68">
-        <v>-0.2806937752665454</v>
+        <v>-0.2447597070527812</v>
       </c>
       <c r="D68">
-        <v>-0.009162059200572243</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01630392304953979</v>
+      </c>
+      <c r="E68">
+        <v>0.04300127462451622</v>
+      </c>
+      <c r="F68">
+        <v>0.01007436032500515</v>
+      </c>
+      <c r="G68">
+        <v>0.03013509281719195</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.09240501039034135</v>
+        <v>0.0876130919389399</v>
       </c>
       <c r="C69">
-        <v>0.07239984950683491</v>
+        <v>0.09012621776186419</v>
       </c>
       <c r="D69">
-        <v>-0.05207722204368014</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01693222069239388</v>
+      </c>
+      <c r="E69">
+        <v>0.05962335933634064</v>
+      </c>
+      <c r="F69">
+        <v>0.05536957736407062</v>
+      </c>
+      <c r="G69">
+        <v>0.07510528229233462</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1125340443649586</v>
+        <v>0.1399513188293608</v>
       </c>
       <c r="C71">
-        <v>-0.2578857784783745</v>
+        <v>-0.2439124539398935</v>
       </c>
       <c r="D71">
-        <v>0.01048839773611625</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.0001542825878011975</v>
+      </c>
+      <c r="E71">
+        <v>0.05748530573424848</v>
+      </c>
+      <c r="F71">
+        <v>0.0106234806530899</v>
+      </c>
+      <c r="G71">
+        <v>0.06546060693673406</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.09734538358256145</v>
+        <v>0.1042669772957578</v>
       </c>
       <c r="C72">
-        <v>0.04169590123539204</v>
+        <v>0.04938102280589037</v>
       </c>
       <c r="D72">
-        <v>0.005534553422658262</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.0336782227873461</v>
+      </c>
+      <c r="E72">
+        <v>0.02123868742702845</v>
+      </c>
+      <c r="F72">
+        <v>0.03346996096423759</v>
+      </c>
+      <c r="G72">
+        <v>0.09116746276934989</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.3957909911034507</v>
+        <v>0.3349756541086522</v>
       </c>
       <c r="C73">
-        <v>0.04730970017585321</v>
+        <v>0.07026296651622174</v>
       </c>
       <c r="D73">
-        <v>0.4458636804096366</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.5115257291580845</v>
+      </c>
+      <c r="E73">
+        <v>-0.4519434161026895</v>
+      </c>
+      <c r="F73">
+        <v>-0.2327509922344379</v>
+      </c>
+      <c r="G73">
+        <v>0.0184505896501427</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1086678727810799</v>
+        <v>0.1128994092506671</v>
       </c>
       <c r="C74">
-        <v>0.0923552097008606</v>
+        <v>0.09186275260162574</v>
       </c>
       <c r="D74">
-        <v>-0.04709534865439617</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.04744804930658803</v>
+      </c>
+      <c r="E74">
+        <v>0.0569821422926353</v>
+      </c>
+      <c r="F74">
+        <v>-0.007831689630363421</v>
+      </c>
+      <c r="G74">
+        <v>0.04548107248055428</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2585230197773233</v>
+        <v>0.2619132494892895</v>
       </c>
       <c r="C75">
-        <v>0.09139562568449672</v>
+        <v>0.1222033802743982</v>
       </c>
       <c r="D75">
-        <v>-0.1369081538872106</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1502779126383682</v>
+      </c>
+      <c r="E75">
+        <v>0.02626258493380642</v>
+      </c>
+      <c r="F75">
+        <v>-0.06386469607092926</v>
+      </c>
+      <c r="G75">
+        <v>-0.05297041907434977</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1168804817086469</v>
+        <v>0.1303191138839262</v>
       </c>
       <c r="C76">
-        <v>0.08010871446397703</v>
+        <v>0.09111654543448879</v>
       </c>
       <c r="D76">
-        <v>-0.07682900697979325</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.08247295264895541</v>
+      </c>
+      <c r="E76">
+        <v>0.07148049988671716</v>
+      </c>
+      <c r="F76">
+        <v>0.01304546100192612</v>
+      </c>
+      <c r="G76">
+        <v>0.03385852342433913</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.0805140024222458</v>
+        <v>0.06644093503999912</v>
       </c>
       <c r="C77">
-        <v>0.04452614242224819</v>
+        <v>0.05811472112061931</v>
       </c>
       <c r="D77">
-        <v>0.05161198202808806</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.05645447239685027</v>
+      </c>
+      <c r="E77">
+        <v>0.1010884514446205</v>
+      </c>
+      <c r="F77">
+        <v>0.1808533674943627</v>
+      </c>
+      <c r="G77">
+        <v>-0.09583520706275582</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04873873518051337</v>
+        <v>0.04711978338225263</v>
       </c>
       <c r="C78">
-        <v>0.04154362831141825</v>
+        <v>0.05246379737365638</v>
       </c>
       <c r="D78">
-        <v>0.03143385909005413</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.06206021859494447</v>
+      </c>
+      <c r="E78">
+        <v>0.06422325168002216</v>
+      </c>
+      <c r="F78">
+        <v>0.06085819803408522</v>
+      </c>
+      <c r="G78">
+        <v>0.06399785515780702</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>-0.0001633944706692726</v>
+        <v>0.03264191792720913</v>
       </c>
       <c r="C79">
-        <v>0.0006871472309123049</v>
+        <v>0.04755626189486889</v>
       </c>
       <c r="D79">
-        <v>0.001286733052205539</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.08313172953787251</v>
+      </c>
+      <c r="E79">
+        <v>0.06541776689232744</v>
+      </c>
+      <c r="F79">
+        <v>-0.02050727043524954</v>
+      </c>
+      <c r="G79">
+        <v>0.02834967799385981</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.03966855893803137</v>
+        <v>0.03058373854338836</v>
       </c>
       <c r="C80">
-        <v>0.04963829643113282</v>
+        <v>0.05007724934273587</v>
       </c>
       <c r="D80">
-        <v>0.02987278177232571</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.03951785623859039</v>
+      </c>
+      <c r="E80">
+        <v>0.01600836961212715</v>
+      </c>
+      <c r="F80">
+        <v>0.05644456693649809</v>
+      </c>
+      <c r="G80">
+        <v>0.001574486385430163</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1432261821194165</v>
+        <v>0.1426308904516554</v>
       </c>
       <c r="C81">
-        <v>0.07266564766074082</v>
+        <v>0.09176988497604825</v>
       </c>
       <c r="D81">
-        <v>-0.111826352062668</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.1265274111325199</v>
+      </c>
+      <c r="E81">
+        <v>0.06836551897829786</v>
+      </c>
+      <c r="F81">
+        <v>-0.02727687807564837</v>
+      </c>
+      <c r="G81">
+        <v>-0.01487391276256991</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1888798052691032</v>
+        <v>0.2240995252458935</v>
       </c>
       <c r="C82">
-        <v>0.08727498294380262</v>
+        <v>0.1497611426979044</v>
       </c>
       <c r="D82">
-        <v>-0.2000208367260122</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2542961318215485</v>
+      </c>
+      <c r="E82">
+        <v>-0.03336690155946506</v>
+      </c>
+      <c r="F82">
+        <v>0.04509462899740299</v>
+      </c>
+      <c r="G82">
+        <v>0.05691111624836713</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.0411321601572507</v>
+        <v>0.02753585689727855</v>
       </c>
       <c r="C83">
-        <v>0.031241563665828</v>
+        <v>0.04539082622498448</v>
       </c>
       <c r="D83">
-        <v>0.03738627801201552</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03316379938520621</v>
+      </c>
+      <c r="E83">
+        <v>0.02750884652745858</v>
+      </c>
+      <c r="F83">
+        <v>0.03915481706203726</v>
+      </c>
+      <c r="G83">
+        <v>0.004646031151796146</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-0.0001915948053516545</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.0004191250635502444</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.0004041679007761405</v>
+      </c>
+      <c r="E84">
+        <v>0.00272784457252693</v>
+      </c>
+      <c r="F84">
+        <v>-0.001523095307800892</v>
+      </c>
+      <c r="G84">
+        <v>0.001048370423553029</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2198240682093769</v>
+        <v>0.2034470202819142</v>
       </c>
       <c r="C85">
-        <v>0.09130376669464914</v>
+        <v>0.1095823708228715</v>
       </c>
       <c r="D85">
-        <v>-0.1682295819643797</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1313716953281433</v>
+      </c>
+      <c r="E85">
+        <v>-0.00894468034743103</v>
+      </c>
+      <c r="F85">
+        <v>-0.1040149978998087</v>
+      </c>
+      <c r="G85">
+        <v>-0.003328102222108581</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.009634103944022395</v>
+        <v>0.01237107289590909</v>
       </c>
       <c r="C86">
-        <v>0.03015660609039113</v>
+        <v>0.0187240518074786</v>
       </c>
       <c r="D86">
-        <v>0.04387555182122544</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.06240140858984061</v>
+      </c>
+      <c r="E86">
+        <v>0.0818918666619568</v>
+      </c>
+      <c r="F86">
+        <v>0.08522171607714016</v>
+      </c>
+      <c r="G86">
+        <v>0.07439375824160896</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.02532287683019574</v>
+        <v>0.02587283947933653</v>
       </c>
       <c r="C87">
-        <v>0.007113499031331942</v>
+        <v>0.01375607007795446</v>
       </c>
       <c r="D87">
-        <v>0.08543242983476641</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.08379372253207416</v>
+      </c>
+      <c r="E87">
+        <v>0.1313084361119672</v>
+      </c>
+      <c r="F87">
+        <v>0.08022201373763033</v>
+      </c>
+      <c r="G87">
+        <v>0.00592706987988164</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1106033845454763</v>
+        <v>0.0940197002539357</v>
       </c>
       <c r="C88">
-        <v>0.07515250305265142</v>
+        <v>0.06341214118673411</v>
       </c>
       <c r="D88">
-        <v>-0.02325560049813688</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.009045222506220255</v>
+      </c>
+      <c r="E88">
+        <v>0.05231055306300603</v>
+      </c>
+      <c r="F88">
+        <v>0.04812274131679287</v>
+      </c>
+      <c r="G88">
+        <v>0.03663693142541254</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1776696116039045</v>
+        <v>0.2137334634360355</v>
       </c>
       <c r="C89">
-        <v>-0.3840875414407802</v>
+        <v>-0.386115855218773</v>
       </c>
       <c r="D89">
-        <v>-0.02453986588289921</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.01446577537356235</v>
+      </c>
+      <c r="E89">
+        <v>0.0680596844263945</v>
+      </c>
+      <c r="F89">
+        <v>0.08971621297004256</v>
+      </c>
+      <c r="G89">
+        <v>-0.004208201228823219</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1703543313310505</v>
+        <v>0.1939319686978309</v>
       </c>
       <c r="C90">
-        <v>-0.3355508794909592</v>
+        <v>-0.3126487542980656</v>
       </c>
       <c r="D90">
-        <v>-0.03863479114730678</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.02140696459159406</v>
+      </c>
+      <c r="E90">
+        <v>0.05749404747842671</v>
+      </c>
+      <c r="F90">
+        <v>0.02916984025477999</v>
+      </c>
+      <c r="G90">
+        <v>0.01348910848592028</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1926836139482408</v>
+        <v>0.1896348937361046</v>
       </c>
       <c r="C91">
-        <v>0.1236893297705861</v>
+        <v>0.139370812226279</v>
       </c>
       <c r="D91">
-        <v>-0.1326315480448439</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1301732283276401</v>
+      </c>
+      <c r="E91">
+        <v>0.04326162146323707</v>
+      </c>
+      <c r="F91">
+        <v>-0.01973639428072549</v>
+      </c>
+      <c r="G91">
+        <v>-0.007149386261547086</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1579111294358883</v>
+        <v>0.1773492511258313</v>
       </c>
       <c r="C92">
-        <v>-0.2939340951499599</v>
+        <v>-0.2977630383952947</v>
       </c>
       <c r="D92">
-        <v>-0.01570637330906217</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.0157310899408799</v>
+      </c>
+      <c r="E92">
+        <v>0.06262193139189438</v>
+      </c>
+      <c r="F92">
+        <v>0.05637571717836157</v>
+      </c>
+      <c r="G92">
+        <v>0.03084703281373535</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.189168066475768</v>
+        <v>0.2145814652705375</v>
       </c>
       <c r="C93">
-        <v>-0.3408153532754177</v>
+        <v>-0.3225431538797289</v>
       </c>
       <c r="D93">
-        <v>-0.03793735556755651</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01855310336682599</v>
+      </c>
+      <c r="E93">
+        <v>0.03865651383258933</v>
+      </c>
+      <c r="F93">
+        <v>0.003114165573909766</v>
+      </c>
+      <c r="G93">
+        <v>0.041193318512215</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3406484665324516</v>
+        <v>0.3431278072304395</v>
       </c>
       <c r="C94">
-        <v>0.121073178511352</v>
+        <v>0.1693233471308281</v>
       </c>
       <c r="D94">
-        <v>-0.3799824244853638</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4059548253978386</v>
+      </c>
+      <c r="E94">
+        <v>-0.004275815020656783</v>
+      </c>
+      <c r="F94">
+        <v>-0.1281958789059444</v>
+      </c>
+      <c r="G94">
+        <v>-0.3927431888717185</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.12431120371909</v>
+        <v>0.09179540424420826</v>
       </c>
       <c r="C95">
-        <v>0.05263006876186642</v>
+        <v>0.05553679084068578</v>
       </c>
       <c r="D95">
-        <v>0.2145653605254033</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1969018207077325</v>
+      </c>
+      <c r="E95">
+        <v>-0.1265792740027517</v>
+      </c>
+      <c r="F95">
+        <v>0.7065677712095035</v>
+      </c>
+      <c r="G95">
+        <v>-0.5723748154733292</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1921092649878365</v>
+        <v>0.1866362480932658</v>
       </c>
       <c r="C98">
-        <v>0.03051011513689248</v>
+        <v>0.04936807240543815</v>
       </c>
       <c r="D98">
-        <v>0.1615771020045881</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.2028687212095026</v>
+      </c>
+      <c r="E98">
+        <v>-0.1353865591775952</v>
+      </c>
+      <c r="F98">
+        <v>-0.08002004807745265</v>
+      </c>
+      <c r="G98">
+        <v>0.07932218056522235</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.007754153148032327</v>
+        <v>0.006591516870154621</v>
       </c>
       <c r="C101">
-        <v>0.03331211929907902</v>
+        <v>0.02778235240044823</v>
       </c>
       <c r="D101">
-        <v>-0.01386487739173371</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.0156016353348386</v>
+      </c>
+      <c r="E101">
+        <v>0.05229789732324916</v>
+      </c>
+      <c r="F101">
+        <v>0.06970340398818678</v>
+      </c>
+      <c r="G101">
+        <v>0.08504589294967868</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1235299179003925</v>
+        <v>0.1267305792505612</v>
       </c>
       <c r="C102">
-        <v>0.06686847172776821</v>
+        <v>0.09775614709264629</v>
       </c>
       <c r="D102">
-        <v>-0.04931311111021058</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.05963873557306568</v>
+      </c>
+      <c r="E102">
+        <v>-0.01434424362179732</v>
+      </c>
+      <c r="F102">
+        <v>0.02032312696945984</v>
+      </c>
+      <c r="G102">
+        <v>-0.01239564827723707</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
